--- a/input/onderwijsniveaus/onderwijsniveaus.xlsx
+++ b/input/onderwijsniveaus/onderwijsniveaus.xlsx
@@ -39,7 +39,7 @@
     <author>Martin Vanbrabant</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="153">
   <si>
     <t>Onderwijsniveau</t>
   </si>
@@ -522,6 +522,12 @@
   </si>
   <si>
     <t>curriculum3</t>
+  </si>
+  <si>
+    <t>buitengewoon lager onderwijs</t>
+  </si>
+  <si>
+    <t>buitengewoon secundair onderwijs</t>
   </si>
 </sst>
 </file>
@@ -1996,15 +2002,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L7"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -2252,33 +2259,29 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>95</v>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2288,8 +2291,17 @@
       <c r="C16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>103</v>
+      <c r="F16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2300,7 +2312,7 @@
         <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2308,19 +2320,10 @@
         <v>121</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2330,11 +2333,17 @@
       <c r="C19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>106</v>
+        <v>144</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2347,8 +2356,8 @@
       <c r="D20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>108</v>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2362,7 +2371,7 @@
         <v>146</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2376,7 +2385,7 @@
         <v>146</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2387,7 +2396,10 @@
         <v>96</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>105</v>
+        <v>146</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2400,9 +2412,6 @@
       <c r="D24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -2415,7 +2424,7 @@
         <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2426,10 +2435,10 @@
         <v>96</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,8 +2451,8 @@
       <c r="D27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>111</v>
+      <c r="F27" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2451,16 +2460,13 @@
         <v>121</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2470,8 +2476,14 @@
       <c r="C29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>146</v>
+      <c r="I29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2484,9 +2496,6 @@
       <c r="D30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2499,7 +2508,7 @@
         <v>146</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2513,7 +2522,7 @@
         <v>146</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2524,7 +2533,10 @@
         <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>105</v>
+        <v>146</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2537,9 +2549,6 @@
       <c r="D34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -2552,7 +2561,7 @@
         <v>105</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2563,7 +2572,10 @@
         <v>97</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>147</v>
+        <v>105</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2576,28 +2588,19 @@
       <c r="D37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2607,8 +2610,17 @@
       <c r="C39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>146</v>
+      <c r="F39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,9 +2633,6 @@
       <c r="D40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -2636,7 +2645,7 @@
         <v>146</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2647,7 +2656,10 @@
         <v>125</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2660,9 +2672,6 @@
       <c r="D43" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -2675,7 +2684,7 @@
         <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2689,12 +2698,41 @@
         <v>147</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I47 I15:I16" twoDigitTextYear="1"/>
+    <ignoredError sqref="I39" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/onderwijsniveaus/onderwijsniveaus.xlsx
+++ b/input/onderwijsniveaus/onderwijsniveaus.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavbraba\Nextcloud\virtualbox-shared\doorgeefluik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-workingcopies\i-learn\conceptschemes\input\onderwijsniveaus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="235" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="423" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Klascement" sheetId="1" r:id="rId1"/>
     <sheet name="onderwijsniveaus" sheetId="2" r:id="rId2"/>
+    <sheet name="obsolete_sec_gr3_lj3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="153">
   <si>
     <t>Onderwijsniveau</t>
   </si>
@@ -2002,11 +2003,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2281,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2525,7 +2524,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>121</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>121</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>121</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>121</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>121</v>
       </c>
@@ -2603,126 +2602,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2730,9 +2617,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I47 I15:I16" twoDigitTextYear="1"/>
-    <ignoredError sqref="I39" numberStoredAsText="1"/>
+    <ignoredError sqref="I39 I15:I16" twoDigitTextYear="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/onderwijsniveaus/onderwijsniveaus.xlsx
+++ b/input/onderwijsniveaus/onderwijsniveaus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-workingcopies\i-learn\conceptschemes\input\onderwijsniveaus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavbraba\Nextcloud\virtualbox-shared\doorgeefluik\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="152">
   <si>
     <t>Onderwijsniveau</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t>http://ilearn.ilabt.imec.be/vocab/elem/sleutelcompetenties</t>
-  </si>
-  <si>
-    <t>http://ilearn.ilabt.imec.be/vocab/elem/studiedomeinen</t>
   </si>
   <si>
     <t>Onderwijssubniveau</t>
@@ -2029,50 +2026,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>6</v>
@@ -2083,16 +2080,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -2100,16 +2097,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -2117,16 +2114,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -2134,10 +2131,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>6</v>
@@ -2153,16 +2150,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>94</v>
@@ -2173,16 +2170,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
@@ -2190,16 +2187,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" s="3">
         <v>8</v>
@@ -2207,16 +2204,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I11" s="3">
         <v>9</v>
@@ -2224,16 +2221,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
@@ -2241,16 +2238,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="3">
         <v>11</v>
@@ -2258,10 +2255,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>6</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>6</v>
@@ -2285,13 +2282,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>95</v>
@@ -2303,37 +2300,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>32</v>
@@ -2341,69 +2338,66 @@
       <c r="J19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>96</v>
@@ -2412,9 +2406,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>96</v>
@@ -2426,9 +2420,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>96</v>
@@ -2440,37 +2434,37 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>97</v>
@@ -2481,44 +2475,41 @@
       <c r="J29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>109</v>
@@ -2526,13 +2517,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>110</v>
@@ -2540,7 +2531,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>97</v>
@@ -2551,7 +2542,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>97</v>
@@ -2565,7 +2556,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>97</v>
@@ -2579,24 +2570,24 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>111</v>
@@ -2604,7 +2595,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>6</v>
@@ -2651,90 +2642,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>108</v>
@@ -2742,13 +2730,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>110</v>
@@ -2756,24 +2744,24 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>111</v>
